--- a/Data/EC/NIT-9006996511.xlsx
+++ b/Data/EC/NIT-9006996511.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCC672FC-0F3F-4B53-A137-50EE1C25EC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BDB10EC-BCC4-49CE-9729-9C5A6DB09C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0A19B919-AB79-4B16-8B6E-3F4B9D7F0AC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2F1E1CF1-58B8-4B31-90FA-4F754A922D74}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="89">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,217 +65,211 @@
     <t>CC</t>
   </si>
   <si>
+    <t>33332392</t>
+  </si>
+  <si>
+    <t>ZULLY DEL CARMEN POLO RIPOLL</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1234090321</t>
+  </si>
+  <si>
+    <t>ALDAIR ALFONSO ROMERO PERALTA</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
     <t>1143336946</t>
   </si>
   <si>
     <t>MIGUEL EUGENIO MUÑOZ ANGULO</t>
   </si>
   <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
     <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>33332392</t>
-  </si>
-  <si>
-    <t>ZULLY DEL CARMEN POLO RIPOLL</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>79552380</t>
-  </si>
-  <si>
-    <t>EDUARDO JESUS LLINAS COGOLLO</t>
-  </si>
-  <si>
-    <t>1234090321</t>
-  </si>
-  <si>
-    <t>ALDAIR ALFONSO ROMERO PERALTA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -374,7 +368,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -387,9 +383,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -589,23 +583,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,10 +627,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,7 +683,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E20674-F100-5251-A8EB-D1E649840759}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C346D2-37A0-9F5A-11E7-51C26F040144}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,8 +1034,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0855BD-DEA8-4FC3-8625-5CB2C411CA74}">
-  <dimension ref="B2:J208"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F516EE-6827-4FE9-9892-742A29B2512A}">
+  <dimension ref="B2:J200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1065,7 +1059,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1110,7 +1104,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1142,12 +1136,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>6297960</v>
+        <v>5991294</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1158,14 +1152,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F13" s="5">
         <v>63</v>
@@ -1195,13 +1189,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1218,10 +1212,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>20833</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1241,10 +1235,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1264,10 +1258,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1278,19 +1272,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1307,13 +1301,13 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1324,19 +1318,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1356,10 +1350,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1370,19 +1364,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1399,13 +1393,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1416,19 +1410,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1445,13 +1439,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1462,19 +1456,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1491,13 +1485,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1508,19 +1502,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1531,19 +1525,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1560,13 +1554,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1577,19 +1571,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1600,19 +1594,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1629,13 +1623,13 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1646,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1669,19 +1663,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1698,13 +1692,13 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1715,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1738,19 +1732,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1767,13 +1761,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1784,19 +1778,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1807,19 +1801,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1836,13 +1830,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1853,19 +1847,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1876,19 +1870,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1905,13 +1899,13 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1922,19 +1916,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1945,19 +1939,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1974,13 +1968,13 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1991,19 +1985,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2014,19 +2008,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2043,13 +2037,13 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2060,19 +2054,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F53" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2083,19 +2077,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F54" s="18">
         <v>29509</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2112,13 +2106,13 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F55" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2129,19 +2123,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F56" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2152,19 +2146,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F57" s="18">
         <v>29509</v>
       </c>
       <c r="G57" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2181,13 +2175,13 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F58" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2198,19 +2192,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F59" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2221,19 +2215,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F60" s="18">
         <v>29509</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2250,13 +2244,13 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F61" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2267,19 +2261,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F62" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2290,19 +2284,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F63" s="18">
         <v>29509</v>
       </c>
       <c r="G63" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2319,13 +2313,13 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F64" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G64" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2336,19 +2330,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F65" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G65" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2359,19 +2353,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F66" s="18">
         <v>29509</v>
       </c>
       <c r="G66" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2388,13 +2382,13 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F67" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G67" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2405,19 +2399,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F68" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G68" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2428,19 +2422,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F69" s="18">
         <v>29509</v>
       </c>
       <c r="G69" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2457,13 +2451,13 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F70" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G70" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2474,19 +2468,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F71" s="18">
-        <v>26666</v>
+        <v>27578</v>
       </c>
       <c r="G71" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2497,19 +2491,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F72" s="18">
-        <v>40000</v>
+        <v>29509</v>
       </c>
       <c r="G72" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2520,19 +2514,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F73" s="18">
         <v>40000</v>
       </c>
       <c r="G73" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2543,19 +2537,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F74" s="18">
-        <v>40000</v>
+        <v>27578</v>
       </c>
       <c r="G74" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2566,19 +2560,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F75" s="18">
-        <v>40000</v>
+        <v>29509</v>
       </c>
       <c r="G75" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2589,19 +2583,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F76" s="18">
         <v>40000</v>
       </c>
       <c r="G76" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2612,19 +2606,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F77" s="18">
-        <v>40000</v>
+        <v>27578</v>
       </c>
       <c r="G77" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2635,19 +2629,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F78" s="18">
-        <v>40000</v>
+        <v>29509</v>
       </c>
       <c r="G78" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2658,19 +2652,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F79" s="18">
         <v>40000</v>
       </c>
       <c r="G79" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2681,19 +2675,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F80" s="18">
-        <v>40000</v>
+        <v>27578</v>
       </c>
       <c r="G80" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2704,19 +2698,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F81" s="18">
-        <v>40000</v>
+        <v>29509</v>
       </c>
       <c r="G81" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2727,19 +2721,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F82" s="18">
         <v>40000</v>
       </c>
       <c r="G82" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2750,19 +2744,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F83" s="18">
-        <v>40000</v>
+        <v>27578</v>
       </c>
       <c r="G83" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2773,19 +2767,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F84" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2796,19 +2790,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F85" s="18">
         <v>40000</v>
       </c>
       <c r="G85" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2819,19 +2813,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F86" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2842,19 +2836,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F87" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2865,19 +2859,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F88" s="18">
         <v>40000</v>
       </c>
       <c r="G88" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2888,19 +2882,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F89" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2911,19 +2905,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F90" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2934,19 +2928,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F91" s="18">
         <v>40000</v>
       </c>
       <c r="G91" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2957,19 +2951,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F92" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2980,19 +2974,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F93" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3003,19 +2997,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F94" s="18">
         <v>40000</v>
       </c>
       <c r="G94" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3026,19 +3020,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F95" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3049,19 +3043,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F96" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3072,19 +3066,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F97" s="18">
         <v>40000</v>
       </c>
       <c r="G97" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3095,19 +3089,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F98" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3118,19 +3112,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F99" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3141,19 +3135,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F100" s="18">
         <v>40000</v>
       </c>
       <c r="G100" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3164,19 +3158,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F101" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3187,19 +3181,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F102" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3210,19 +3204,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F103" s="18">
         <v>40000</v>
       </c>
       <c r="G103" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3233,19 +3227,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F104" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3256,19 +3250,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F105" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3279,19 +3273,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F106" s="18">
         <v>40000</v>
       </c>
       <c r="G106" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3302,19 +3296,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F107" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3325,19 +3319,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F108" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3348,10 +3342,10 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>49</v>
@@ -3360,7 +3354,7 @@
         <v>40000</v>
       </c>
       <c r="G109" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3371,19 +3365,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F110" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3394,19 +3388,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F111" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3417,19 +3411,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F112" s="18">
         <v>40000</v>
       </c>
       <c r="G112" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3440,19 +3434,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F113" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3463,19 +3457,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F114" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3486,19 +3480,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F115" s="18">
         <v>40000</v>
       </c>
       <c r="G115" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3509,19 +3503,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F116" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3532,19 +3526,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F117" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3555,19 +3549,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F118" s="18">
         <v>40000</v>
       </c>
       <c r="G118" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3578,19 +3572,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F119" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3601,19 +3595,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F120" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3624,19 +3618,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F121" s="18">
         <v>40000</v>
       </c>
       <c r="G121" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3647,19 +3641,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F122" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3670,19 +3664,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F123" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3693,19 +3687,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F124" s="18">
         <v>40000</v>
       </c>
       <c r="G124" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3716,19 +3710,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F125" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3739,19 +3733,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F126" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3762,19 +3756,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F127" s="18">
         <v>40000</v>
       </c>
       <c r="G127" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3785,19 +3779,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F128" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3808,19 +3802,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F129" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3831,19 +3825,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F130" s="18">
         <v>40000</v>
       </c>
       <c r="G130" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3854,19 +3848,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F131" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3877,19 +3871,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F132" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3900,19 +3894,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F133" s="18">
         <v>40000</v>
       </c>
       <c r="G133" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3923,19 +3917,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F134" s="18">
-        <v>26666</v>
+        <v>31249</v>
       </c>
       <c r="G134" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3946,19 +3940,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F135" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3969,13 +3963,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F136" s="18">
         <v>40000</v>
@@ -3992,19 +3986,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F137" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G137" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4015,19 +4009,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F138" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G138" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4038,13 +4032,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F139" s="18">
         <v>40000</v>
@@ -4061,19 +4055,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F140" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G140" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4084,19 +4078,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F141" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G141" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4107,19 +4101,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F142" s="18">
-        <v>20833</v>
+        <v>40000</v>
       </c>
       <c r="G142" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4130,19 +4124,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4153,19 +4147,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
       </c>
       <c r="G144" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4176,19 +4170,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F145" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G145" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4199,19 +4193,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
       </c>
       <c r="G146" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4222,19 +4216,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
       </c>
       <c r="G147" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4245,19 +4239,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="F148" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G148" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4268,19 +4262,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
       </c>
       <c r="G149" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4291,19 +4285,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
       </c>
       <c r="G150" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4314,19 +4308,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F151" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G151" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4337,19 +4331,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
       </c>
       <c r="G152" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4360,19 +4354,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
       </c>
       <c r="G153" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4383,19 +4377,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F154" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G154" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4406,19 +4400,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F155" s="18">
         <v>31249</v>
       </c>
       <c r="G155" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4429,19 +4423,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
       </c>
       <c r="G156" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4452,19 +4446,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F157" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G157" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4475,19 +4469,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="F158" s="18">
         <v>31249</v>
       </c>
       <c r="G158" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4498,19 +4492,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
       </c>
       <c r="G159" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4521,19 +4515,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F160" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G160" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4544,19 +4538,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
       </c>
       <c r="G161" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4567,19 +4561,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F162" s="18">
         <v>31249</v>
       </c>
       <c r="G162" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4590,19 +4584,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F163" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G163" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4613,19 +4607,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="F164" s="18">
         <v>31249</v>
       </c>
       <c r="G164" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4636,19 +4630,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F165" s="18">
         <v>31249</v>
       </c>
       <c r="G165" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4659,19 +4653,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F166" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G166" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4682,19 +4676,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F167" s="18">
         <v>31249</v>
       </c>
       <c r="G167" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4705,19 +4699,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
       </c>
       <c r="G168" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4728,19 +4722,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F169" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G169" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4751,19 +4745,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F170" s="18">
         <v>31249</v>
       </c>
       <c r="G170" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4774,19 +4768,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F171" s="18">
         <v>31249</v>
       </c>
       <c r="G171" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4797,19 +4791,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F172" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G172" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4820,19 +4814,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F173" s="18">
         <v>31249</v>
       </c>
       <c r="G173" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4843,19 +4837,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F174" s="18">
         <v>31249</v>
       </c>
       <c r="G174" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4866,19 +4860,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F175" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G175" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -4889,19 +4883,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F176" s="18">
         <v>31249</v>
       </c>
       <c r="G176" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -4912,19 +4906,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F177" s="18">
         <v>31249</v>
       </c>
       <c r="G177" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -4935,19 +4929,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F178" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G178" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -4958,19 +4952,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F179" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G179" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -4981,19 +4975,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F180" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G180" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5004,19 +4998,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F181" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G181" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5027,19 +5021,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F182" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G182" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5050,19 +5044,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F183" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G183" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5073,19 +5067,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F184" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G184" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5096,19 +5090,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F185" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G185" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5119,19 +5113,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F186" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G186" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5142,19 +5136,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F187" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G187" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5165,19 +5159,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F188" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G188" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5188,19 +5182,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F189" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G189" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5211,19 +5205,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F190" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G190" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5234,19 +5228,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F191" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G191" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5257,19 +5251,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F192" s="18">
-        <v>27578</v>
+        <v>20833</v>
       </c>
       <c r="G192" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5280,259 +5274,75 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F193" s="18">
-        <v>27578</v>
+        <v>26666</v>
       </c>
       <c r="G193" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
       <c r="J193" s="20"/>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B194" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D194" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E194" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F194" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G194" s="18">
-        <v>689455</v>
-      </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B195" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D195" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E195" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F195" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G195" s="18">
-        <v>689455</v>
-      </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B196" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D196" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E196" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F196" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G196" s="18">
-        <v>689455</v>
-      </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="20"/>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B197" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D197" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E197" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F197" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G197" s="18">
-        <v>689455</v>
-      </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="20"/>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B198" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C198" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D198" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E198" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F198" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G198" s="18">
-        <v>689455</v>
-      </c>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="20"/>
+      <c r="B194" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F194" s="24">
+        <v>20833</v>
+      </c>
+      <c r="G194" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H194" s="25"/>
+      <c r="I194" s="25"/>
+      <c r="J194" s="26"/>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B199" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D199" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E199" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F199" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G199" s="18">
-        <v>689455</v>
-      </c>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="20"/>
+      <c r="B199" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C199" s="32"/>
+      <c r="H199" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B200" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D200" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F200" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G200" s="18">
-        <v>689455</v>
-      </c>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="20"/>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B201" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D201" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E201" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F201" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G201" s="18">
-        <v>689455</v>
-      </c>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="20"/>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B202" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D202" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E202" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F202" s="24">
-        <v>27578</v>
-      </c>
-      <c r="G202" s="24">
-        <v>689455</v>
-      </c>
-      <c r="H202" s="25"/>
-      <c r="I202" s="25"/>
-      <c r="J202" s="26"/>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B207" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C207" s="32"/>
-      <c r="H207" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B208" s="32" t="s">
+      <c r="B200" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C200" s="32"/>
+      <c r="H200" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C208" s="32"/>
-      <c r="H208" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="H208:J208"/>
-    <mergeCell ref="H207:J207"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="H200:J200"/>
+    <mergeCell ref="H199:J199"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
